--- a/public/Book1.xlsx
+++ b/public/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EraMint\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E511D-670C-407F-900D-AA994F72CBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF5980-55BD-48D4-A998-27BAF43C93FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>product Arabic Name</t>
-  </si>
-  <si>
-    <t>product English Name</t>
-  </si>
-  <si>
-    <t>English description</t>
-  </si>
-  <si>
-    <t>Arabic description</t>
-  </si>
-  <si>
-    <t>English Spec</t>
-  </si>
-  <si>
-    <t>Arab Spec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>price</t>
   </si>
@@ -58,27 +40,15 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>Category English Name</t>
-  </si>
-  <si>
     <t>vendor_id</t>
   </si>
   <si>
-    <t>Vendor English Name</t>
-  </si>
-  <si>
     <t>supermarket_id</t>
   </si>
   <si>
-    <t>supermarket English Name</t>
-  </si>
-  <si>
     <t>measure_id</t>
   </si>
   <si>
-    <t>measure English Name</t>
-  </si>
-  <si>
     <t>size_id</t>
   </si>
   <si>
@@ -100,7 +70,22 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>created_at</t>
+    <t>product_arabic_name</t>
+  </si>
+  <si>
+    <t>product_english_name</t>
+  </si>
+  <si>
+    <t>english_description</t>
+  </si>
+  <si>
+    <t>arabic_description</t>
+  </si>
+  <si>
+    <t>english_spec</t>
+  </si>
+  <si>
+    <t>arabic_spec</t>
   </si>
 </sst>
 </file>
@@ -440,95 +425,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/Book1.xlsx
+++ b/public/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EraMint\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EraMint\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF5980-55BD-48D4-A998-27BAF43C93FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515601DF-F7CF-4CE0-93AB-0115C6769D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>price</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>arabic_spec</t>
+  </si>
+  <si>
+    <t>branches_id</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +453,10 @@
     <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -515,6 +522,12 @@
       </c>
       <c r="V1" t="s">
         <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
